--- a/read/리디북스 프로젝트 일정표.xlsx
+++ b/read/리디북스 프로젝트 일정표.xlsx
@@ -5,7 +5,7 @@
   <x:workbookPr date1904="0" showBorderUnselectedTables="1" filterPrivacy="0" promptedSolutions="0" showInkAnnotation="1" backupFile="0" saveExternalLinkValues="1" codeName="ThisWorkbook" hidePivotFieldList="0" allowRefreshQuery="0" publishItems="0" checkCompatibility="0" autoCompressPictures="1" refreshAllConnections="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leeso\eclipse-workspace\ridibooks\read\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leeso\OneDrive\바탕 화면\ridibooks\read\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <x:bookViews>
@@ -19,19 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
-  <x:si>
-    <x:t>22.01.12
-~ 22.01.13</x:t>
-  </x:si>
-  <x:si>
-    <x:t>아이디, 이메일
-중복확인 기능 구현</x:t>
-  </x:si>
-  <x:si>
-    <x:t>아이디, 비밀번호 찾기
-기능 구현</x:t>
-  </x:si>
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <x:si>
     <x:t>메인(카테고리) 구현 및
 검색 페이지 구현</x:t>
@@ -41,12 +29,24 @@
 페이지 연동</x:t>
   </x:si>
   <x:si>
-    <x:t>알림, 카트, 마이리디 구현
-및 세부 기능 구현</x:t>
-  </x:si>
-  <x:si>
-    <x:t>도서별 상세페이지 구현,
-내 서재 페이지 구현</x:t>
+    <x:t>마이리디 페이지 구현
+(기능 테스트 용)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원가입 시 아이디 및 
+이메일 중복확인 ajax 구현</x:t>
+  </x:si>
+  <x:si>
+    <x:t>반응형웹 구현</x:t>
+  </x:si>
+  <x:si>
+    <x:t>프론트앤드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>수정사항</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 회원가입 year 미입력 시 기본값 0으로 변경 필요 // 추후 데이터타입 int -&gt; date로 변경해볼 것</x:t>
   </x:si>
   <x:si>
     <x:t>로그인 기능 구현</x:t>
@@ -68,24 +68,84 @@
     </x:r>
   </x:si>
   <x:si>
+    <x:t>22.01.10
+~ 22.01.11</x:t>
+  </x:si>
+  <x:si>
+    <x:t>22.01.08
+~ 22.01.09</x:t>
+  </x:si>
+  <x:si>
+    <x:t>22.01.06
+~ 22.01.07</x:t>
+  </x:si>
+  <x:si>
+    <x:t>22.01.26
+~ 22.01.27</x:t>
+  </x:si>
+  <x:si>
+    <x:t>22.01.12
+~ 22.01.13</x:t>
+  </x:si>
+  <x:si>
+    <x:t>22.01.30
+~ 22.01.31</x:t>
+  </x:si>
+  <x:si>
+    <x:t>22.01.20
+~ 22.01.21</x:t>
+  </x:si>
+  <x:si>
+    <x:t>22.02.03
+~ 22.02.04</x:t>
+  </x:si>
+  <x:si>
+    <x:t>22.02.05
+~ 22.02.06</x:t>
+  </x:si>
+  <x:si>
+    <x:t>메인헤더 구성 및
+로그인 화면 구현</x:t>
+  </x:si>
+  <x:si>
+    <x:t>22.01.14
+~ 22.01.15</x:t>
+  </x:si>
+  <x:si>
+    <x:t>22.01.24
+~ 22.01.25</x:t>
+  </x:si>
+  <x:si>
+    <x:t>22.02.01
+~ 22.02.02</x:t>
+  </x:si>
+  <x:si>
+    <x:t>22.01.22
+~ 22.01.23</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로그인/로그아웃에 따른
+페이지 전환</x:t>
+  </x:si>
+  <x:si>
+    <x:t>아이디, 이메일
+중복확인 기능 구현</x:t>
+  </x:si>
+  <x:si>
+    <x:t>21.12.29
+~ 21.12.30</x:t>
+  </x:si>
+  <x:si>
     <x:t>21.12.31
 ~ 22.01.01</x:t>
   </x:si>
   <x:si>
-    <x:t>메인헤더 구성 및
-로그인 화면 구현</x:t>
-  </x:si>
-  <x:si>
-    <x:t>21.12.29
-~ 21.12.30</x:t>
-  </x:si>
-  <x:si>
-    <x:t>22.01.10
-~ 22.01.11</x:t>
-  </x:si>
-  <x:si>
-    <x:t>22.01.08
-~ 22.01.09</x:t>
+    <x:t>아이디, 비밀번호 찾기
+기능 구현</x:t>
+  </x:si>
+  <x:si>
+    <x:t>비밀번호 및 이메일 변경
+기능 구현</x:t>
   </x:si>
   <x:si>
     <x:t>22.01.02
@@ -100,51 +160,64 @@
 ~ 22.01.05</x:t>
   </x:si>
   <x:si>
-    <x:t>22.01.06
-~ 22.01.07</x:t>
-  </x:si>
-  <x:si>
-    <x:t>리디북스 페이지 구현 일정표</x:t>
+    <x:t>22.01.18
+~ 22.01.19</x:t>
+  </x:si>
+  <x:si>
+    <x:t>22.01.16
+~ 22.01.17</x:t>
+  </x:si>
+  <x:si>
+    <x:t>22.01.28
+~ 22.01.29</x:t>
+  </x:si>
+  <x:si>
+    <x:t>메뉴(카테고리)별 구성 및
+회원가입 상세페이지 구현</x:t>
   </x:si>
   <x:si>
     <x:t>알림, 카트 페이지 구현
 마이리디 구현, 푸터 구성</x:t>
   </x:si>
   <x:si>
-    <x:t>메뉴(카테고리)별 구성 및
-회원가입 상세페이지 구현</x:t>
-  </x:si>
-  <x:si>
     <x:t>백엔드</x:t>
   </x:si>
   <x:si>
-    <x:t>프론트앤드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>반응형웹 구현</x:t>
-  </x:si>
-  <x:si>
-    <x:t>22.01.16
-~ 22.01.17</x:t>
+    <x:t>카트, 위시리스트 페이지 구현(기능 테스트 용)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로그인, 회원가입 ajax구현 및 코드 정리</x:t>
   </x:si>
   <x:si>
     <x:t>frontControl.jsp 로
 각 페이지 연동</x:t>
   </x:si>
   <x:si>
+    <x:t>2. 로그인상태유지 value값 전달 테스트</x:t>
+  </x:si>
+  <x:si>
     <x:t>메인 각 분류 탭 페이지
 분리 및 jsp 변환</x:t>
   </x:si>
   <x:si>
-    <x:t>검색 기능 구현</x:t>
-  </x:si>
-  <x:si>
-    <x:t>22.01.14
-~ 22.01.15</x:t>
-  </x:si>
-  <x:si>
-    <x:t>22.01.18
-~ 22.01.19</x:t>
+    <x:t>도서별 상세페이지 구현,
+내 서재 페이지 구현</x:t>
+  </x:si>
+  <x:si>
+    <x:t>메인 로그인/로그아웃 화면 전환 및 로그아웃 구현</x:t>
+  </x:si>
+  <x:si>
+    <x:t>리디북스 페이지 구현 일정표</x:t>
+  </x:si>
+  <x:si>
+    <x:t>아이디 찾기 뷰 화면 구현</x:t>
+  </x:si>
+  <x:si>
+    <x:t>비밀번호 찾기 뷰 화면
+구현</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Book DB 구현 및 연동</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -238,7 +311,7 @@
       </x:patternFill>
     </x:fill>
   </x:fills>
-  <x:borders count="18">
+  <x:borders count="19">
     <x:border>
       <x:left>
         <x:color auto="1"/>
@@ -380,13 +453,41 @@
       </x:bottom>
     </x:border>
     <x:border>
+      <x:left>
+        <x:color auto="1"/>
+      </x:left>
+      <x:right style="medium">
+        <x:color auto="1"/>
+      </x:right>
+      <x:top>
+        <x:color auto="1"/>
+      </x:top>
+      <x:bottom style="medium">
+        <x:color auto="1"/>
+      </x:bottom>
+    </x:border>
+    <x:border>
+      <x:left style="thin">
+        <x:color auto="1"/>
+      </x:left>
+      <x:right>
+        <x:color auto="1"/>
+      </x:right>
+      <x:top style="medium">
+        <x:color auto="1"/>
+      </x:top>
+      <x:bottom style="double">
+        <x:color auto="1"/>
+      </x:bottom>
+    </x:border>
+    <x:border>
       <x:left style="thin">
         <x:color auto="1"/>
       </x:left>
       <x:right style="thin">
         <x:color auto="1"/>
       </x:right>
-      <x:top>
+      <x:top style="thin">
         <x:color auto="1"/>
       </x:top>
       <x:bottom>
@@ -468,20 +569,6 @@
         <x:color auto="1"/>
       </x:left>
       <x:right style="thin">
-        <x:color auto="1"/>
-      </x:right>
-      <x:top>
-        <x:color auto="1"/>
-      </x:top>
-      <x:bottom style="medium">
-        <x:color auto="1"/>
-      </x:bottom>
-    </x:border>
-    <x:border>
-      <x:left>
-        <x:color auto="1"/>
-      </x:left>
-      <x:right style="medium">
         <x:color auto="1"/>
       </x:right>
       <x:top>
@@ -497,7 +584,13 @@
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="36">
+  <x:cellXfs count="41">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
@@ -612,58 +705,71 @@
     </x:xf>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center" wrapText="1"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="general" vertical="center" wrapText="1"/>
+    </x:xf>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
           <x:alignment horizontal="center" vertical="center" wrapText="1"/>
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-          <x:alignment horizontal="center" vertical="center"/>
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="center"/>
-    </x:xf>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
           <x:alignment horizontal="center" vertical="center"/>
         </x:xf>
       </mc:Fallback>
@@ -681,15 +787,21 @@
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
           <x:alignment horizontal="center" vertical="center"/>
         </x:xf>
       </mc:Fallback>
@@ -709,23 +821,43 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center" wrapText="1"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
           <x:alignment horizontal="center" vertical="center" wrapText="1"/>
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <x:alignment horizontal="general" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <x:alignment horizontal="general" vertical="center"/>
-    </x:xf>
   </x:cellXfs>
   <x:cellStyles count="1">
     <x:cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -760,7 +892,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -781,7 +912,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -802,7 +932,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -833,7 +962,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -864,7 +992,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -942,7 +1069,6 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -977,7 +1103,6 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1012,7 +1137,6 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1057,7 +1181,6 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1101,7 +1224,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1506,498 +1628,922 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr codeName="Sheet1"/>
-  <x:dimension ref="A2:R22"/>
+  <x:dimension ref="A2:Z33"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="R10" activeCellId="0" sqref="R10:R10"/>
+    <x:sheetView tabSelected="1" topLeftCell="A11" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:selection activeCell="F23" activeCellId="0" sqref="F23:F23"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9" defaultRowHeight="16.399999999999999"/>
   <x:cols>
-    <x:col min="1" max="1" width="9" style="1" customWidth="1"/>
-    <x:col min="2" max="2" width="10.5" style="1" bestFit="1" customWidth="1"/>
-    <x:col min="3" max="3" width="23.375" style="1" bestFit="1" customWidth="1"/>
-    <x:col min="4" max="10" width="10" style="1" bestFit="1" customWidth="1"/>
-    <x:col min="11" max="14" width="10" customWidth="1"/>
-    <x:col min="15" max="17" width="10" style="1" bestFit="1" customWidth="1"/>
+    <x:col min="1" max="1" width="10.5" style="3" bestFit="1" customWidth="1"/>
+    <x:col min="2" max="2" width="23.375" style="3" bestFit="1" customWidth="1"/>
+    <x:col min="3" max="9" width="10" style="3" bestFit="1" customWidth="1"/>
+    <x:col min="10" max="13" width="10" style="2" customWidth="1"/>
+    <x:col min="14" max="22" width="10" style="1" customWidth="1"/>
+    <x:col min="23" max="25" width="10" style="3" bestFit="1" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="2" spans="2:17" ht="22.050000000000001">
-      <x:c r="B2" s="29" t="s">
+    <x:row r="2" spans="1:25" ht="22.050000000000001">
+      <x:c r="A2" s="36" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="B2" s="36"/>
+      <x:c r="C2" s="36"/>
+      <x:c r="D2" s="36"/>
+      <x:c r="E2" s="36"/>
+      <x:c r="F2" s="36"/>
+      <x:c r="G2" s="36"/>
+      <x:c r="H2" s="36"/>
+      <x:c r="I2" s="36"/>
+      <x:c r="J2" s="36"/>
+      <x:c r="K2" s="36"/>
+      <x:c r="L2" s="36"/>
+      <x:c r="M2" s="36"/>
+      <x:c r="N2" s="36"/>
+      <x:c r="O2" s="36"/>
+      <x:c r="P2" s="36"/>
+      <x:c r="Q2" s="36"/>
+      <x:c r="R2" s="36"/>
+      <x:c r="S2" s="36"/>
+      <x:c r="T2" s="36"/>
+      <x:c r="U2" s="36"/>
+      <x:c r="V2" s="36"/>
+      <x:c r="W2" s="36"/>
+      <x:c r="X2" s="36"/>
+      <x:c r="Y2" s="36"/>
+    </x:row>
+    <x:row r="3" spans="1:24">
+      <x:c r="A3" s="2"/>
+      <x:c r="B3" s="2"/>
+      <x:c r="C3" s="2"/>
+      <x:c r="D3" s="2"/>
+      <x:c r="E3" s="2"/>
+      <x:c r="F3" s="2"/>
+      <x:c r="G3" s="2"/>
+      <x:c r="H3" s="2"/>
+      <x:c r="I3" s="2"/>
+      <x:c r="W3" s="2"/>
+      <x:c r="X3" s="2"/>
+    </x:row>
+    <x:row r="4" spans="1:26" ht="32.649999999999999" customHeight="1">
+      <x:c r="A4" s="34"/>
+      <x:c r="B4" s="35"/>
+      <x:c r="C4" s="5" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D4" s="5" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="E4" s="5" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="F4" s="5" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="G4" s="5" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="H4" s="5" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="I4" s="5" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="J4" s="5" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="K4" s="5" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="L4" s="5" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="M4" s="5" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="N4" s="28" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="O4" s="28" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="P4" s="28" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="Q4" s="28" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="R4" s="28" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="S4" s="28" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="T4" s="28" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="U4" s="28" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="V4" s="28" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="W4" s="6" t="s">
         <x:v>19</x:v>
       </x:c>
-      <x:c r="C2" s="29"/>
-      <x:c r="D2" s="29"/>
-      <x:c r="E2" s="29"/>
-      <x:c r="F2" s="29"/>
-      <x:c r="G2" s="29"/>
-      <x:c r="H2" s="29"/>
-      <x:c r="I2" s="29"/>
-      <x:c r="J2" s="29"/>
-      <x:c r="K2" s="29"/>
-      <x:c r="L2" s="29"/>
-      <x:c r="M2" s="29"/>
-      <x:c r="N2" s="29"/>
-      <x:c r="O2" s="29"/>
-      <x:c r="P2" s="29"/>
-      <x:c r="Q2" s="29"/>
-    </x:row>
-    <x:row r="3" spans="1:16">
-      <x:c r="A3"/>
-      <x:c r="B3"/>
-      <x:c r="C3"/>
-      <x:c r="D3"/>
-      <x:c r="E3"/>
-      <x:c r="F3"/>
-      <x:c r="G3"/>
-      <x:c r="H3"/>
-      <x:c r="I3"/>
-      <x:c r="J3"/>
-      <x:c r="O3"/>
-      <x:c r="P3"/>
-    </x:row>
-    <x:row r="4" spans="1:18" ht="32.649999999999999" customHeight="1">
-      <x:c r="A4"/>
-      <x:c r="B4" s="27"/>
-      <x:c r="C4" s="28"/>
-      <x:c r="D4" s="3" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="E4" s="3" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="F4" s="3" t="s">
+      <x:c r="X4" s="25"/>
+      <x:c r="Y4" s="25"/>
+      <x:c r="Z4" s="23"/>
+    </x:row>
+    <x:row r="5" spans="1:26" ht="32.649999999999999" customHeight="1">
+      <x:c r="A5" s="32" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B5" s="7" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="C5" s="11"/>
+      <x:c r="D5" s="12"/>
+      <x:c r="E5" s="12"/>
+      <x:c r="F5" s="12"/>
+      <x:c r="G5" s="12"/>
+      <x:c r="H5" s="12"/>
+      <x:c r="I5" s="12"/>
+      <x:c r="J5" s="12"/>
+      <x:c r="K5" s="12"/>
+      <x:c r="L5" s="12"/>
+      <x:c r="M5" s="12"/>
+      <x:c r="N5" s="12"/>
+      <x:c r="O5" s="12"/>
+      <x:c r="P5" s="12"/>
+      <x:c r="Q5" s="12"/>
+      <x:c r="R5" s="12"/>
+      <x:c r="S5" s="12"/>
+      <x:c r="T5" s="12"/>
+      <x:c r="U5" s="12"/>
+      <x:c r="V5" s="12"/>
+      <x:c r="W5" s="13"/>
+      <x:c r="X5" s="12"/>
+      <x:c r="Y5" s="12"/>
+      <x:c r="Z5" s="23"/>
+    </x:row>
+    <x:row r="6" spans="1:26" ht="32.75">
+      <x:c r="A6" s="33"/>
+      <x:c r="B6" s="8" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="C6" s="14"/>
+      <x:c r="D6" s="4"/>
+      <x:c r="E6" s="12"/>
+      <x:c r="F6" s="12"/>
+      <x:c r="G6" s="12"/>
+      <x:c r="H6" s="12"/>
+      <x:c r="I6" s="12"/>
+      <x:c r="J6" s="12"/>
+      <x:c r="K6" s="12"/>
+      <x:c r="L6" s="12"/>
+      <x:c r="M6" s="12"/>
+      <x:c r="N6" s="12"/>
+      <x:c r="O6" s="12"/>
+      <x:c r="P6" s="12"/>
+      <x:c r="Q6" s="12"/>
+      <x:c r="R6" s="12"/>
+      <x:c r="S6" s="12"/>
+      <x:c r="T6" s="12"/>
+      <x:c r="U6" s="12"/>
+      <x:c r="V6" s="12"/>
+      <x:c r="W6" s="13"/>
+      <x:c r="X6" s="12"/>
+      <x:c r="Y6" s="12"/>
+      <x:c r="Z6" s="23"/>
+    </x:row>
+    <x:row r="7" spans="1:26" ht="32.75">
+      <x:c r="A7" s="33"/>
+      <x:c r="B7" s="8" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="C7" s="15"/>
+      <x:c r="D7" s="16"/>
+      <x:c r="E7" s="16"/>
+      <x:c r="F7" s="23"/>
+      <x:c r="G7" s="12"/>
+      <x:c r="H7" s="12"/>
+      <x:c r="I7" s="12"/>
+      <x:c r="J7" s="12"/>
+      <x:c r="K7" s="12"/>
+      <x:c r="L7" s="12"/>
+      <x:c r="M7" s="12"/>
+      <x:c r="N7" s="12"/>
+      <x:c r="O7" s="12"/>
+      <x:c r="P7" s="12"/>
+      <x:c r="Q7" s="12"/>
+      <x:c r="R7" s="12"/>
+      <x:c r="S7" s="12"/>
+      <x:c r="T7" s="12"/>
+      <x:c r="U7" s="12"/>
+      <x:c r="V7" s="12"/>
+      <x:c r="W7" s="13"/>
+      <x:c r="X7" s="12"/>
+      <x:c r="Y7" s="12"/>
+      <x:c r="Z7" s="23"/>
+    </x:row>
+    <x:row r="8" spans="1:26" ht="32.75">
+      <x:c r="A8" s="33"/>
+      <x:c r="B8" s="8" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="C8" s="15"/>
+      <x:c r="D8" s="12"/>
+      <x:c r="E8" s="17"/>
+      <x:c r="F8" s="17"/>
+      <x:c r="G8" s="23"/>
+      <x:c r="H8" s="23"/>
+      <x:c r="I8" s="12"/>
+      <x:c r="J8" s="12"/>
+      <x:c r="K8" s="12"/>
+      <x:c r="L8" s="12"/>
+      <x:c r="M8" s="12"/>
+      <x:c r="N8" s="12"/>
+      <x:c r="O8" s="12"/>
+      <x:c r="P8" s="12"/>
+      <x:c r="Q8" s="12"/>
+      <x:c r="R8" s="12"/>
+      <x:c r="S8" s="12"/>
+      <x:c r="T8" s="12"/>
+      <x:c r="U8" s="12"/>
+      <x:c r="V8" s="12"/>
+      <x:c r="W8" s="13"/>
+      <x:c r="X8" s="12"/>
+      <x:c r="Y8" s="12"/>
+      <x:c r="Z8" s="23"/>
+    </x:row>
+    <x:row r="9" spans="1:26" ht="32.75">
+      <x:c r="A9" s="33"/>
+      <x:c r="B9" s="8" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="C9" s="15"/>
+      <x:c r="D9" s="12"/>
+      <x:c r="E9" s="12"/>
+      <x:c r="F9" s="18"/>
+      <x:c r="G9" s="18"/>
+      <x:c r="H9" s="12"/>
+      <x:c r="I9" s="23"/>
+      <x:c r="J9" s="23"/>
+      <x:c r="K9" s="23"/>
+      <x:c r="L9" s="23"/>
+      <x:c r="M9" s="23"/>
+      <x:c r="N9" s="23"/>
+      <x:c r="O9" s="23"/>
+      <x:c r="P9" s="23"/>
+      <x:c r="Q9" s="23"/>
+      <x:c r="R9" s="23"/>
+      <x:c r="S9" s="23"/>
+      <x:c r="T9" s="23"/>
+      <x:c r="U9" s="23"/>
+      <x:c r="V9" s="23"/>
+      <x:c r="W9" s="24"/>
+      <x:c r="X9" s="12"/>
+      <x:c r="Y9" s="12"/>
+      <x:c r="Z9" s="23"/>
+    </x:row>
+    <x:row r="10" spans="1:26" ht="33" customHeight="1">
+      <x:c r="A10" s="33"/>
+      <x:c r="B10" s="9" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="C10" s="15"/>
+      <x:c r="D10" s="12"/>
+      <x:c r="E10" s="12"/>
+      <x:c r="F10" s="12"/>
+      <x:c r="G10" s="12"/>
+      <x:c r="H10" s="19"/>
+      <x:c r="I10" s="19"/>
+      <x:c r="J10" s="23"/>
+      <x:c r="K10" s="23"/>
+      <x:c r="L10" s="23"/>
+      <x:c r="M10" s="23"/>
+      <x:c r="N10" s="23"/>
+      <x:c r="O10" s="23"/>
+      <x:c r="P10" s="23"/>
+      <x:c r="Q10" s="23"/>
+      <x:c r="R10" s="23"/>
+      <x:c r="S10" s="23"/>
+      <x:c r="T10" s="23"/>
+      <x:c r="U10" s="23"/>
+      <x:c r="V10" s="23"/>
+      <x:c r="W10" s="13"/>
+      <x:c r="X10" s="23"/>
+      <x:c r="Y10" s="12"/>
+      <x:c r="Z10" s="23"/>
+    </x:row>
+    <x:row r="11" spans="1:26" ht="33" customHeight="1">
+      <x:c r="A11" s="37" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="B11" s="9" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="C11" s="15"/>
+      <x:c r="D11" s="20"/>
+      <x:c r="E11" s="20"/>
+      <x:c r="F11" s="12"/>
+      <x:c r="G11" s="12"/>
+      <x:c r="H11" s="12"/>
+      <x:c r="I11" s="12"/>
+      <x:c r="J11" s="12"/>
+      <x:c r="K11" s="12"/>
+      <x:c r="L11" s="12"/>
+      <x:c r="M11" s="12"/>
+      <x:c r="N11" s="12"/>
+      <x:c r="O11" s="12"/>
+      <x:c r="P11" s="12"/>
+      <x:c r="Q11" s="12"/>
+      <x:c r="R11" s="12"/>
+      <x:c r="S11" s="12"/>
+      <x:c r="T11" s="12"/>
+      <x:c r="U11" s="12"/>
+      <x:c r="V11" s="12"/>
+      <x:c r="W11" s="13"/>
+      <x:c r="X11" s="12"/>
+      <x:c r="Y11" s="12"/>
+      <x:c r="Z11" s="23"/>
+    </x:row>
+    <x:row r="12" spans="1:26" ht="33" customHeight="1">
+      <x:c r="A12" s="38"/>
+      <x:c r="B12" s="9" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C12" s="15"/>
+      <x:c r="D12" s="12"/>
+      <x:c r="E12" s="4"/>
+      <x:c r="F12" s="4"/>
+      <x:c r="G12" s="12"/>
+      <x:c r="H12" s="12"/>
+      <x:c r="I12" s="12"/>
+      <x:c r="J12" s="12"/>
+      <x:c r="K12" s="12"/>
+      <x:c r="L12" s="12"/>
+      <x:c r="M12" s="12"/>
+      <x:c r="N12" s="12"/>
+      <x:c r="O12" s="12"/>
+      <x:c r="P12" s="12"/>
+      <x:c r="Q12" s="12"/>
+      <x:c r="R12" s="12"/>
+      <x:c r="S12" s="12"/>
+      <x:c r="T12" s="12"/>
+      <x:c r="U12" s="12"/>
+      <x:c r="V12" s="12"/>
+      <x:c r="W12" s="13"/>
+      <x:c r="X12" s="12"/>
+      <x:c r="Y12" s="12"/>
+      <x:c r="Z12" s="23"/>
+    </x:row>
+    <x:row r="13" spans="1:26" ht="33" customHeight="1">
+      <x:c r="A13" s="38"/>
+      <x:c r="B13" s="9" t="s">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="G4" s="3" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="H4" s="3" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="I4" s="3" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="J4" s="3" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="K4" s="3" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="L4" s="3" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="M4" s="3" t="s">
+      <x:c r="C13" s="15"/>
+      <x:c r="D13" s="12"/>
+      <x:c r="E13" s="12"/>
+      <x:c r="F13" s="12"/>
+      <x:c r="G13" s="4"/>
+      <x:c r="H13" s="4"/>
+      <x:c r="I13" s="12"/>
+      <x:c r="J13" s="12"/>
+      <x:c r="K13" s="12"/>
+      <x:c r="L13" s="12"/>
+      <x:c r="M13" s="12"/>
+      <x:c r="N13" s="12"/>
+      <x:c r="O13" s="12"/>
+      <x:c r="P13" s="12"/>
+      <x:c r="Q13" s="12"/>
+      <x:c r="R13" s="12"/>
+      <x:c r="S13" s="12"/>
+      <x:c r="T13" s="12"/>
+      <x:c r="U13" s="12"/>
+      <x:c r="V13" s="12"/>
+      <x:c r="W13" s="13"/>
+      <x:c r="X13" s="12"/>
+      <x:c r="Y13" s="12"/>
+      <x:c r="Z13" s="23"/>
+    </x:row>
+    <x:row r="14" spans="1:26" ht="33" customHeight="1">
+      <x:c r="A14" s="38"/>
+      <x:c r="B14" s="8" t="s">
         <x:v>29</x:v>
       </x:c>
-      <x:c r="N4" s="3" t="s">
+      <x:c r="C14" s="15"/>
+      <x:c r="D14" s="12"/>
+      <x:c r="E14" s="12"/>
+      <x:c r="F14" s="12"/>
+      <x:c r="G14" s="12"/>
+      <x:c r="H14" s="12"/>
+      <x:c r="I14" s="4"/>
+      <x:c r="J14" s="4"/>
+      <x:c r="K14" s="23"/>
+      <x:c r="L14" s="23"/>
+      <x:c r="M14" s="23"/>
+      <x:c r="N14" s="23"/>
+      <x:c r="O14" s="23"/>
+      <x:c r="P14" s="23"/>
+      <x:c r="Q14" s="23"/>
+      <x:c r="R14" s="23"/>
+      <x:c r="S14" s="23"/>
+      <x:c r="T14" s="23"/>
+      <x:c r="U14" s="23"/>
+      <x:c r="V14" s="23"/>
+      <x:c r="W14" s="13"/>
+      <x:c r="X14" s="12"/>
+      <x:c r="Y14" s="12"/>
+      <x:c r="Z14" s="23"/>
+    </x:row>
+    <x:row r="15" spans="1:26" ht="33" customHeight="1">
+      <x:c r="A15" s="38"/>
+      <x:c r="B15" s="26" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="C15" s="15"/>
+      <x:c r="D15" s="12"/>
+      <x:c r="E15" s="12"/>
+      <x:c r="F15" s="12"/>
+      <x:c r="G15" s="12"/>
+      <x:c r="H15" s="12"/>
+      <x:c r="I15" s="12"/>
+      <x:c r="J15" s="4"/>
+      <x:c r="K15" s="4"/>
+      <x:c r="L15" s="23"/>
+      <x:c r="M15" s="12"/>
+      <x:c r="N15" s="12"/>
+      <x:c r="O15" s="12"/>
+      <x:c r="P15" s="12"/>
+      <x:c r="Q15" s="12"/>
+      <x:c r="R15" s="12"/>
+      <x:c r="S15" s="12"/>
+      <x:c r="T15" s="12"/>
+      <x:c r="U15" s="12"/>
+      <x:c r="V15" s="12"/>
+      <x:c r="W15" s="13"/>
+      <x:c r="X15" s="12"/>
+      <x:c r="Y15" s="12"/>
+      <x:c r="Z15" s="23"/>
+    </x:row>
+    <x:row r="16" spans="1:26" s="2" customFormat="1" ht="33" customHeight="1">
+      <x:c r="A16" s="37"/>
+      <x:c r="B16" s="8" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="C16" s="15"/>
+      <x:c r="D16" s="12"/>
+      <x:c r="E16" s="12"/>
+      <x:c r="F16" s="12"/>
+      <x:c r="G16" s="12"/>
+      <x:c r="H16" s="12"/>
+      <x:c r="I16" s="12"/>
+      <x:c r="J16" s="12"/>
+      <x:c r="K16" s="4"/>
+      <x:c r="L16" s="12"/>
+      <x:c r="M16" s="12"/>
+      <x:c r="N16" s="12"/>
+      <x:c r="O16" s="12"/>
+      <x:c r="P16" s="12"/>
+      <x:c r="Q16" s="12"/>
+      <x:c r="R16" s="12"/>
+      <x:c r="S16" s="12"/>
+      <x:c r="T16" s="12"/>
+      <x:c r="U16" s="12"/>
+      <x:c r="V16" s="12"/>
+      <x:c r="W16" s="13"/>
+      <x:c r="X16" s="12"/>
+      <x:c r="Y16" s="12"/>
+      <x:c r="Z16" s="23"/>
+    </x:row>
+    <x:row r="17" spans="1:26" s="2" customFormat="1" ht="33" customHeight="1">
+      <x:c r="A17" s="38"/>
+      <x:c r="B17" s="26" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="C17" s="15"/>
+      <x:c r="D17" s="12"/>
+      <x:c r="E17" s="12"/>
+      <x:c r="F17" s="12"/>
+      <x:c r="G17" s="12"/>
+      <x:c r="H17" s="12"/>
+      <x:c r="I17" s="12"/>
+      <x:c r="J17" s="12"/>
+      <x:c r="K17" s="12"/>
+      <x:c r="L17" s="4"/>
+      <x:c r="M17" s="4"/>
+      <x:c r="N17" s="12"/>
+      <x:c r="O17" s="12"/>
+      <x:c r="P17" s="12"/>
+      <x:c r="Q17" s="12"/>
+      <x:c r="R17" s="12"/>
+      <x:c r="S17" s="12"/>
+      <x:c r="T17" s="12"/>
+      <x:c r="U17" s="12"/>
+      <x:c r="V17" s="12"/>
+      <x:c r="W17" s="13"/>
+      <x:c r="X17" s="12"/>
+      <x:c r="Y17" s="12"/>
+      <x:c r="Z17" s="23"/>
+    </x:row>
+    <x:row r="18" spans="1:26" ht="33" customHeight="1">
+      <x:c r="A18" s="38"/>
+      <x:c r="B18" s="8" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="C18" s="15"/>
+      <x:c r="D18" s="12"/>
+      <x:c r="E18" s="12"/>
+      <x:c r="F18" s="12"/>
+      <x:c r="G18" s="12"/>
+      <x:c r="H18" s="23"/>
+      <x:c r="I18" s="12"/>
+      <x:c r="J18" s="12"/>
+      <x:c r="K18" s="12"/>
+      <x:c r="L18" s="12"/>
+      <x:c r="M18" s="4"/>
+      <x:c r="N18" s="12"/>
+      <x:c r="O18" s="12"/>
+      <x:c r="P18" s="12"/>
+      <x:c r="Q18" s="12"/>
+      <x:c r="R18" s="12"/>
+      <x:c r="S18" s="12"/>
+      <x:c r="T18" s="12"/>
+      <x:c r="U18" s="12"/>
+      <x:c r="V18" s="12"/>
+      <x:c r="W18" s="13"/>
+      <x:c r="X18" s="12"/>
+      <x:c r="Y18" s="12"/>
+      <x:c r="Z18" s="23"/>
+    </x:row>
+    <x:row r="19" spans="1:26" s="1" customFormat="1" ht="33" customHeight="1">
+      <x:c r="A19" s="37"/>
+      <x:c r="B19" s="8" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="C19" s="15"/>
+      <x:c r="D19" s="12"/>
+      <x:c r="E19" s="12"/>
+      <x:c r="F19" s="12"/>
+      <x:c r="G19" s="12"/>
+      <x:c r="H19" s="23"/>
+      <x:c r="I19" s="12"/>
+      <x:c r="J19" s="12"/>
+      <x:c r="K19" s="12"/>
+      <x:c r="L19" s="12"/>
+      <x:c r="M19" s="12"/>
+      <x:c r="N19" s="4"/>
+      <x:c r="O19" s="12"/>
+      <x:c r="P19" s="12"/>
+      <x:c r="Q19" s="12"/>
+      <x:c r="R19" s="12"/>
+      <x:c r="S19" s="12"/>
+      <x:c r="T19" s="12"/>
+      <x:c r="U19" s="12"/>
+      <x:c r="V19" s="12"/>
+      <x:c r="W19" s="13"/>
+      <x:c r="X19" s="12"/>
+      <x:c r="Y19" s="12"/>
+      <x:c r="Z19" s="23"/>
+    </x:row>
+    <x:row r="20" spans="1:26" ht="33" customHeight="1">
+      <x:c r="A20" s="38"/>
+      <x:c r="B20" s="8" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C20" s="15"/>
+      <x:c r="D20" s="12"/>
+      <x:c r="E20" s="12"/>
+      <x:c r="F20" s="12"/>
+      <x:c r="G20" s="12"/>
+      <x:c r="H20" s="23"/>
+      <x:c r="I20" s="23"/>
+      <x:c r="J20" s="23"/>
+      <x:c r="K20" s="23"/>
+      <x:c r="L20" s="23"/>
+      <x:c r="M20" s="12"/>
+      <x:c r="N20" s="12"/>
+      <x:c r="O20" s="4"/>
+      <x:c r="P20" s="4"/>
+      <x:c r="Q20" s="23"/>
+      <x:c r="R20" s="23"/>
+      <x:c r="S20" s="23"/>
+      <x:c r="T20" s="23"/>
+      <x:c r="U20" s="12"/>
+      <x:c r="V20" s="12"/>
+      <x:c r="W20" s="24"/>
+      <x:c r="X20" s="12"/>
+      <x:c r="Y20" s="12"/>
+      <x:c r="Z20" s="23"/>
+    </x:row>
+    <x:row r="21" spans="1:26" ht="33" customHeight="1">
+      <x:c r="A21" s="38"/>
+      <x:c r="B21" s="26" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="C21" s="15"/>
+      <x:c r="D21" s="12"/>
+      <x:c r="E21" s="12"/>
+      <x:c r="F21" s="12"/>
+      <x:c r="G21" s="12"/>
+      <x:c r="H21" s="12"/>
+      <x:c r="I21" s="23"/>
+      <x:c r="J21" s="23"/>
+      <x:c r="K21" s="23"/>
+      <x:c r="L21" s="23"/>
+      <x:c r="M21" s="12"/>
+      <x:c r="N21" s="12"/>
+      <x:c r="O21" s="12"/>
+      <x:c r="P21" s="4"/>
+      <x:c r="Q21" s="4"/>
+      <x:c r="R21" s="23"/>
+      <x:c r="S21" s="23"/>
+      <x:c r="T21" s="23"/>
+      <x:c r="U21" s="12"/>
+      <x:c r="V21" s="12"/>
+      <x:c r="W21" s="24"/>
+      <x:c r="X21" s="12"/>
+      <x:c r="Y21" s="12"/>
+      <x:c r="Z21" s="23"/>
+    </x:row>
+    <x:row r="22" spans="1:26" s="1" customFormat="1" ht="33" customHeight="1">
+      <x:c r="A22" s="38"/>
+      <x:c r="B22" s="31" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="C22" s="15"/>
+      <x:c r="D22" s="12"/>
+      <x:c r="E22" s="12"/>
+      <x:c r="F22" s="12"/>
+      <x:c r="G22" s="12"/>
+      <x:c r="H22" s="12"/>
+      <x:c r="I22" s="23"/>
+      <x:c r="J22" s="23"/>
+      <x:c r="K22" s="23"/>
+      <x:c r="L22" s="23"/>
+      <x:c r="M22" s="12"/>
+      <x:c r="N22" s="12"/>
+      <x:c r="O22" s="12"/>
+      <x:c r="P22" s="12"/>
+      <x:c r="Q22" s="4"/>
+      <x:c r="R22" s="4"/>
+      <x:c r="S22" s="23"/>
+      <x:c r="T22" s="23"/>
+      <x:c r="U22" s="12"/>
+      <x:c r="V22" s="12"/>
+      <x:c r="W22" s="24"/>
+      <x:c r="X22" s="12"/>
+      <x:c r="Y22" s="12"/>
+      <x:c r="Z22" s="23"/>
+    </x:row>
+    <x:row r="23" spans="1:26" s="1" customFormat="1" ht="33" customHeight="1">
+      <x:c r="A23" s="38"/>
+      <x:c r="B23" s="30" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="C23" s="15"/>
+      <x:c r="D23" s="12"/>
+      <x:c r="E23" s="12"/>
+      <x:c r="F23" s="12"/>
+      <x:c r="G23" s="12"/>
+      <x:c r="H23" s="12"/>
+      <x:c r="I23" s="23"/>
+      <x:c r="J23" s="23"/>
+      <x:c r="K23" s="23"/>
+      <x:c r="L23" s="23"/>
+      <x:c r="M23" s="12"/>
+      <x:c r="N23" s="12"/>
+      <x:c r="O23" s="12"/>
+      <x:c r="P23" s="12"/>
+      <x:c r="Q23" s="12"/>
+      <x:c r="R23" s="4"/>
+      <x:c r="S23" s="23"/>
+      <x:c r="T23" s="23"/>
+      <x:c r="U23" s="12"/>
+      <x:c r="V23" s="12"/>
+      <x:c r="W23" s="24"/>
+      <x:c r="X23" s="12"/>
+      <x:c r="Y23" s="12"/>
+      <x:c r="Z23" s="23"/>
+    </x:row>
+    <x:row r="24" spans="1:26" s="1" customFormat="1" ht="33" customHeight="1">
+      <x:c r="A24" s="37"/>
+      <x:c r="B24" s="31" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="C24" s="15"/>
+      <x:c r="D24" s="12"/>
+      <x:c r="E24" s="12"/>
+      <x:c r="F24" s="12"/>
+      <x:c r="G24" s="12"/>
+      <x:c r="H24" s="12"/>
+      <x:c r="I24" s="23"/>
+      <x:c r="J24" s="23"/>
+      <x:c r="K24" s="23"/>
+      <x:c r="L24" s="23"/>
+      <x:c r="M24" s="12"/>
+      <x:c r="N24" s="12"/>
+      <x:c r="O24" s="12"/>
+      <x:c r="P24" s="12"/>
+      <x:c r="Q24" s="12"/>
+      <x:c r="R24" s="4"/>
+      <x:c r="S24" s="23"/>
+      <x:c r="T24" s="23"/>
+      <x:c r="U24" s="12"/>
+      <x:c r="V24" s="12"/>
+      <x:c r="W24" s="24"/>
+      <x:c r="X24" s="12"/>
+      <x:c r="Y24" s="12"/>
+      <x:c r="Z24" s="23"/>
+    </x:row>
+    <x:row r="25" spans="1:26" customFormat="1" ht="33" customHeight="1">
+      <x:c r="A25" s="38"/>
+      <x:c r="B25" s="40" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="C25" s="15"/>
+      <x:c r="D25" s="12"/>
+      <x:c r="E25" s="12"/>
+      <x:c r="F25" s="12"/>
+      <x:c r="G25" s="12"/>
+      <x:c r="H25" s="12"/>
+      <x:c r="I25" s="23"/>
+      <x:c r="J25" s="23"/>
+      <x:c r="K25" s="23"/>
+      <x:c r="L25" s="23"/>
+      <x:c r="M25" s="12"/>
+      <x:c r="N25" s="12"/>
+      <x:c r="O25" s="12"/>
+      <x:c r="P25" s="12"/>
+      <x:c r="Q25" s="12"/>
+      <x:c r="R25" s="12"/>
+      <x:c r="S25" s="4"/>
+      <x:c r="T25" s="23"/>
+      <x:c r="U25" s="12"/>
+      <x:c r="V25" s="12"/>
+      <x:c r="W25" s="24"/>
+      <x:c r="X25" s="12"/>
+      <x:c r="Y25" s="12"/>
+      <x:c r="Z25" s="23"/>
+    </x:row>
+    <x:row r="26" spans="1:26" s="1" customFormat="1" ht="33" customHeight="1">
+      <x:c r="A26" s="38"/>
+      <x:c r="B26" s="30" t="s">
         <x:v>25</x:v>
       </x:c>
-      <x:c r="O4" s="4" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="P4" s="23"/>
-      <x:c r="Q4" s="23"/>
-      <x:c r="R4" s="21"/>
-    </x:row>
-    <x:row r="5" spans="1:18" ht="32.649999999999999" customHeight="1">
-      <x:c r="A5"/>
-      <x:c r="B5" s="25" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="C5" s="5" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="D5" s="9"/>
-      <x:c r="E5" s="10"/>
-      <x:c r="F5" s="10"/>
-      <x:c r="G5" s="10"/>
-      <x:c r="H5" s="10"/>
-      <x:c r="I5" s="10"/>
-      <x:c r="J5" s="10"/>
-      <x:c r="K5" s="10"/>
-      <x:c r="L5" s="10"/>
-      <x:c r="M5" s="10"/>
-      <x:c r="N5" s="10"/>
-      <x:c r="O5" s="11"/>
-      <x:c r="P5" s="10"/>
-      <x:c r="Q5" s="10"/>
-      <x:c r="R5" s="21"/>
-    </x:row>
-    <x:row r="6" spans="1:18" ht="32.75">
-      <x:c r="A6"/>
-      <x:c r="B6" s="26"/>
-      <x:c r="C6" s="6" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="D6" s="12"/>
-      <x:c r="E6" s="2"/>
-      <x:c r="F6" s="10"/>
-      <x:c r="G6" s="10"/>
-      <x:c r="H6" s="10"/>
-      <x:c r="I6" s="10"/>
-      <x:c r="J6" s="10"/>
-      <x:c r="K6" s="10"/>
-      <x:c r="L6" s="10"/>
-      <x:c r="M6" s="10"/>
-      <x:c r="N6" s="10"/>
-      <x:c r="O6" s="11"/>
-      <x:c r="P6" s="10"/>
-      <x:c r="Q6" s="10"/>
-      <x:c r="R6" s="21"/>
-    </x:row>
-    <x:row r="7" spans="1:18" ht="32.75">
-      <x:c r="A7"/>
-      <x:c r="B7" s="26"/>
-      <x:c r="C7" s="6" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="D7" s="13"/>
-      <x:c r="E7" s="14"/>
-      <x:c r="F7" s="14"/>
-      <x:c r="G7" s="21"/>
-      <x:c r="H7" s="10"/>
-      <x:c r="I7" s="10"/>
-      <x:c r="J7" s="10"/>
-      <x:c r="K7" s="10"/>
-      <x:c r="L7" s="10"/>
-      <x:c r="M7" s="10"/>
-      <x:c r="N7" s="10"/>
-      <x:c r="O7" s="11"/>
-      <x:c r="P7" s="10"/>
-      <x:c r="Q7" s="10"/>
-      <x:c r="R7" s="21"/>
-    </x:row>
-    <x:row r="8" spans="1:18" ht="32.75">
-      <x:c r="A8"/>
-      <x:c r="B8" s="26"/>
-      <x:c r="C8" s="6" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="D8" s="13"/>
-      <x:c r="E8" s="10"/>
-      <x:c r="F8" s="15"/>
-      <x:c r="G8" s="15"/>
-      <x:c r="H8" s="21"/>
-      <x:c r="I8" s="21"/>
-      <x:c r="J8" s="10"/>
-      <x:c r="K8" s="10"/>
-      <x:c r="L8" s="10"/>
-      <x:c r="M8" s="10"/>
-      <x:c r="N8" s="10"/>
-      <x:c r="O8" s="11"/>
-      <x:c r="P8" s="10"/>
-      <x:c r="Q8" s="10"/>
-      <x:c r="R8" s="21"/>
-    </x:row>
-    <x:row r="9" spans="1:18" ht="32.75">
-      <x:c r="A9"/>
-      <x:c r="B9" s="26"/>
-      <x:c r="C9" s="6" t="s">
+      <x:c r="C26" s="15"/>
+      <x:c r="D26" s="12"/>
+      <x:c r="E26" s="12"/>
+      <x:c r="F26" s="12"/>
+      <x:c r="G26" s="12"/>
+      <x:c r="H26" s="12"/>
+      <x:c r="I26" s="23"/>
+      <x:c r="J26" s="23"/>
+      <x:c r="K26" s="23"/>
+      <x:c r="L26" s="23"/>
+      <x:c r="M26" s="12"/>
+      <x:c r="N26" s="12"/>
+      <x:c r="O26" s="12"/>
+      <x:c r="P26" s="12"/>
+      <x:c r="Q26" s="12"/>
+      <x:c r="R26" s="12"/>
+      <x:c r="S26" s="4"/>
+      <x:c r="T26" s="4"/>
+      <x:c r="U26" s="12"/>
+      <x:c r="V26" s="12"/>
+      <x:c r="W26" s="24"/>
+      <x:c r="X26" s="12"/>
+      <x:c r="Y26" s="12"/>
+      <x:c r="Z26" s="23"/>
+    </x:row>
+    <x:row r="27" spans="1:26" s="1" customFormat="1" ht="33" customHeight="1">
+      <x:c r="A27" s="38"/>
+      <x:c r="B27" s="30" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="C27" s="15"/>
+      <x:c r="D27" s="12"/>
+      <x:c r="E27" s="12"/>
+      <x:c r="F27" s="12"/>
+      <x:c r="G27" s="12"/>
+      <x:c r="H27" s="12"/>
+      <x:c r="I27" s="23"/>
+      <x:c r="J27" s="23"/>
+      <x:c r="K27" s="23"/>
+      <x:c r="L27" s="23"/>
+      <x:c r="M27" s="12"/>
+      <x:c r="N27" s="12"/>
+      <x:c r="O27" s="12"/>
+      <x:c r="P27" s="12"/>
+      <x:c r="Q27" s="12"/>
+      <x:c r="R27" s="12"/>
+      <x:c r="S27" s="12"/>
+      <x:c r="T27" s="4"/>
+      <x:c r="U27" s="4"/>
+      <x:c r="V27" s="12"/>
+      <x:c r="W27" s="24"/>
+      <x:c r="X27" s="12"/>
+      <x:c r="Y27" s="12"/>
+      <x:c r="Z27" s="23"/>
+    </x:row>
+    <x:row r="28" spans="1:26" s="1" customFormat="1" ht="33" customHeight="1">
+      <x:c r="A28" s="37"/>
+      <x:c r="B28" s="30" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="C28" s="15"/>
+      <x:c r="D28" s="12"/>
+      <x:c r="E28" s="12"/>
+      <x:c r="F28" s="12"/>
+      <x:c r="G28" s="12"/>
+      <x:c r="H28" s="12"/>
+      <x:c r="I28" s="23"/>
+      <x:c r="J28" s="23"/>
+      <x:c r="K28" s="23"/>
+      <x:c r="L28" s="23"/>
+      <x:c r="M28" s="12"/>
+      <x:c r="N28" s="12"/>
+      <x:c r="O28" s="12"/>
+      <x:c r="P28" s="12"/>
+      <x:c r="Q28" s="12"/>
+      <x:c r="R28" s="12"/>
+      <x:c r="S28" s="12"/>
+      <x:c r="T28" s="23"/>
+      <x:c r="U28" s="4"/>
+      <x:c r="V28" s="4"/>
+      <x:c r="W28" s="24"/>
+      <x:c r="X28" s="12"/>
+      <x:c r="Y28" s="12"/>
+      <x:c r="Z28" s="23"/>
+    </x:row>
+    <x:row r="29" spans="1:26" ht="33" customHeight="1">
+      <x:c r="A29" s="39"/>
+      <x:c r="B29" s="10"/>
+      <x:c r="C29" s="21"/>
+      <x:c r="D29" s="22"/>
+      <x:c r="E29" s="22"/>
+      <x:c r="F29" s="22"/>
+      <x:c r="G29" s="22"/>
+      <x:c r="H29" s="22"/>
+      <x:c r="I29" s="22"/>
+      <x:c r="J29" s="22"/>
+      <x:c r="K29" s="22"/>
+      <x:c r="L29" s="22"/>
+      <x:c r="M29" s="22"/>
+      <x:c r="N29" s="22"/>
+      <x:c r="O29" s="22"/>
+      <x:c r="P29" s="22"/>
+      <x:c r="Q29" s="22"/>
+      <x:c r="R29" s="22"/>
+      <x:c r="S29" s="22"/>
+      <x:c r="T29" s="22"/>
+      <x:c r="U29" s="22"/>
+      <x:c r="V29" s="22"/>
+      <x:c r="W29" s="27"/>
+      <x:c r="X29" s="12"/>
+      <x:c r="Y29" s="12"/>
+      <x:c r="Z29" s="23"/>
+    </x:row>
+    <x:row r="30" spans="1:24" ht="33" customHeight="1">
+      <x:c r="A30" s="1"/>
+      <x:c r="B30" s="29"/>
+      <x:c r="C30" s="1"/>
+      <x:c r="D30" s="2"/>
+      <x:c r="E30" s="2"/>
+      <x:c r="F30" s="2"/>
+      <x:c r="G30" s="2"/>
+      <x:c r="H30" s="2"/>
+      <x:c r="I30" s="2"/>
+      <x:c r="W30" s="2"/>
+      <x:c r="X30" s="2"/>
+    </x:row>
+    <x:row r="31" spans="2:2">
+      <x:c r="B31" s="3" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="D9" s="13"/>
-      <x:c r="E9" s="10"/>
-      <x:c r="F9" s="10"/>
-      <x:c r="G9" s="16"/>
-      <x:c r="H9" s="16"/>
-      <x:c r="I9" s="10"/>
-      <x:c r="J9" s="21"/>
-      <x:c r="K9" s="21"/>
-      <x:c r="L9" s="21"/>
-      <x:c r="M9" s="21"/>
-      <x:c r="N9" s="21"/>
-      <x:c r="O9" s="22"/>
-      <x:c r="P9" s="10"/>
-      <x:c r="Q9" s="10"/>
-      <x:c r="R9" s="21"/>
-    </x:row>
-    <x:row r="10" spans="1:18" ht="33" customHeight="1">
-      <x:c r="A10"/>
-      <x:c r="B10" s="26"/>
-      <x:c r="C10" s="7" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="D10" s="13"/>
-      <x:c r="E10" s="10"/>
-      <x:c r="F10" s="10"/>
-      <x:c r="G10" s="10"/>
-      <x:c r="H10" s="10"/>
-      <x:c r="I10" s="17"/>
-      <x:c r="J10" s="17"/>
-      <x:c r="K10" s="21"/>
-      <x:c r="L10" s="21"/>
-      <x:c r="M10" s="21"/>
-      <x:c r="N10" s="21"/>
-      <x:c r="O10" s="11"/>
-      <x:c r="P10" s="21"/>
-      <x:c r="Q10" s="10"/>
-      <x:c r="R10" s="21"/>
-    </x:row>
-    <x:row r="11" spans="1:18" ht="33" customHeight="1">
-      <x:c r="A11"/>
-      <x:c r="B11" s="30" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="C11" s="7" t="s">
+    </x:row>
+    <x:row r="32" spans="2:2">
+      <x:c r="B32" s="3" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="D11" s="13"/>
-      <x:c r="E11" s="18"/>
-      <x:c r="F11" s="18"/>
-      <x:c r="G11" s="10"/>
-      <x:c r="H11" s="10"/>
-      <x:c r="I11" s="10"/>
-      <x:c r="J11" s="10"/>
-      <x:c r="K11" s="10"/>
-      <x:c r="L11" s="10"/>
-      <x:c r="M11" s="10"/>
-      <x:c r="N11" s="10"/>
-      <x:c r="O11" s="11"/>
-      <x:c r="P11" s="10"/>
-      <x:c r="Q11" s="10"/>
-      <x:c r="R11" s="21"/>
-    </x:row>
-    <x:row r="12" spans="1:18" ht="33" customHeight="1">
-      <x:c r="A12"/>
-      <x:c r="B12" s="31"/>
-      <x:c r="C12" s="7" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="D12" s="13"/>
-      <x:c r="E12" s="10"/>
-      <x:c r="F12" s="2"/>
-      <x:c r="G12" s="2"/>
-      <x:c r="H12" s="10"/>
-      <x:c r="I12" s="10"/>
-      <x:c r="J12" s="10"/>
-      <x:c r="K12" s="10"/>
-      <x:c r="L12" s="10"/>
-      <x:c r="M12" s="10"/>
-      <x:c r="N12" s="10"/>
-      <x:c r="O12" s="11"/>
-      <x:c r="P12" s="10"/>
-      <x:c r="Q12" s="10"/>
-      <x:c r="R12" s="21"/>
-    </x:row>
-    <x:row r="13" spans="1:18" ht="33" customHeight="1">
-      <x:c r="A13"/>
-      <x:c r="B13" s="31"/>
-      <x:c r="C13" s="7" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="D13" s="13"/>
-      <x:c r="E13" s="10"/>
-      <x:c r="F13" s="10"/>
-      <x:c r="G13" s="10"/>
-      <x:c r="H13" s="2"/>
-      <x:c r="I13" s="2"/>
-      <x:c r="J13" s="10"/>
-      <x:c r="K13" s="10"/>
-      <x:c r="L13" s="10"/>
-      <x:c r="M13" s="10"/>
-      <x:c r="N13" s="10"/>
-      <x:c r="O13" s="11"/>
-      <x:c r="P13" s="10"/>
-      <x:c r="Q13" s="10"/>
-      <x:c r="R13" s="21"/>
-    </x:row>
-    <x:row r="14" spans="1:18" ht="33" customHeight="1">
-      <x:c r="A14"/>
-      <x:c r="B14" s="31"/>
-      <x:c r="C14" s="6" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="D14" s="13"/>
-      <x:c r="E14" s="10"/>
-      <x:c r="F14" s="10"/>
-      <x:c r="G14" s="10"/>
-      <x:c r="H14" s="10"/>
-      <x:c r="I14" s="10"/>
-      <x:c r="J14" s="2"/>
-      <x:c r="K14" s="2"/>
-      <x:c r="L14" s="21"/>
-      <x:c r="M14" s="21"/>
-      <x:c r="N14" s="21"/>
-      <x:c r="O14" s="11"/>
-      <x:c r="P14" s="10"/>
-      <x:c r="Q14" s="10"/>
-      <x:c r="R14" s="21"/>
-    </x:row>
-    <x:row r="15" spans="1:18" ht="33" customHeight="1">
-      <x:c r="A15"/>
-      <x:c r="B15" s="31"/>
-      <x:c r="C15" s="33" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="D15" s="13"/>
-      <x:c r="E15" s="10"/>
-      <x:c r="F15" s="10"/>
-      <x:c r="G15" s="10"/>
-      <x:c r="H15" s="10"/>
-      <x:c r="I15" s="10"/>
-      <x:c r="J15" s="10"/>
-      <x:c r="K15" s="2"/>
-      <x:c r="L15" s="2"/>
-      <x:c r="M15" s="21"/>
-      <x:c r="N15" s="10"/>
-      <x:c r="O15" s="11"/>
-      <x:c r="P15" s="10"/>
-      <x:c r="Q15" s="10"/>
-      <x:c r="R15" s="21"/>
-    </x:row>
-    <x:row r="16" spans="2:18" customFormat="1" ht="33" customHeight="1">
-      <x:c r="B16" s="30"/>
-      <x:c r="C16" s="6" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="D16" s="13"/>
-      <x:c r="E16" s="10"/>
-      <x:c r="F16" s="10"/>
-      <x:c r="G16" s="10"/>
-      <x:c r="H16" s="10"/>
-      <x:c r="I16" s="10"/>
-      <x:c r="J16" s="10"/>
-      <x:c r="K16" s="10"/>
-      <x:c r="L16" s="2"/>
-      <x:c r="M16" s="10"/>
-      <x:c r="N16" s="10"/>
-      <x:c r="O16" s="11"/>
-      <x:c r="P16" s="10"/>
-      <x:c r="Q16" s="10"/>
-      <x:c r="R16" s="21"/>
-    </x:row>
-    <x:row r="17" spans="2:18" customFormat="1" ht="33" customHeight="1">
-      <x:c r="B17" s="31"/>
-      <x:c r="C17" s="33" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="D17" s="13"/>
-      <x:c r="E17" s="10"/>
-      <x:c r="F17" s="10"/>
-      <x:c r="G17" s="10"/>
-      <x:c r="H17" s="10"/>
-      <x:c r="I17" s="10"/>
-      <x:c r="J17" s="10"/>
-      <x:c r="K17" s="10"/>
-      <x:c r="L17" s="10"/>
-      <x:c r="M17" s="2"/>
-      <x:c r="N17" s="10"/>
-      <x:c r="O17" s="11"/>
-      <x:c r="P17" s="10"/>
-      <x:c r="Q17" s="10"/>
-      <x:c r="R17" s="21"/>
-    </x:row>
-    <x:row r="18" spans="1:18" ht="33" customHeight="1">
-      <x:c r="A18"/>
-      <x:c r="B18" s="31"/>
-      <x:c r="C18" s="6" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="D18" s="13"/>
-      <x:c r="E18" s="10"/>
-      <x:c r="F18" s="10"/>
-      <x:c r="G18" s="10"/>
-      <x:c r="H18" s="10"/>
-      <x:c r="I18" s="21"/>
-      <x:c r="J18" s="10"/>
-      <x:c r="K18" s="10"/>
-      <x:c r="L18" s="10"/>
-      <x:c r="M18" s="2"/>
-      <x:c r="N18" s="10"/>
-      <x:c r="O18" s="11"/>
-      <x:c r="P18" s="10"/>
-      <x:c r="Q18" s="10"/>
-      <x:c r="R18" s="21"/>
-    </x:row>
-    <x:row r="19" spans="1:18" ht="33" customHeight="1">
-      <x:c r="A19"/>
-      <x:c r="B19" s="31"/>
-      <x:c r="C19" s="6" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="D19" s="13"/>
-      <x:c r="E19" s="10"/>
-      <x:c r="F19" s="10"/>
-      <x:c r="G19" s="10"/>
-      <x:c r="H19" s="10"/>
-      <x:c r="I19" s="21"/>
-      <x:c r="J19" s="21"/>
-      <x:c r="K19" s="21"/>
-      <x:c r="L19" s="21"/>
-      <x:c r="M19" s="21"/>
-      <x:c r="N19" s="2"/>
-      <x:c r="O19" s="22"/>
-      <x:c r="P19" s="10"/>
-      <x:c r="Q19" s="10"/>
-      <x:c r="R19" s="21"/>
-    </x:row>
-    <x:row r="20" spans="1:18" ht="33" customHeight="1">
-      <x:c r="A20"/>
-      <x:c r="B20" s="31"/>
-      <x:c r="C20" s="33" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="D20" s="13"/>
-      <x:c r="E20" s="10"/>
-      <x:c r="F20" s="10"/>
-      <x:c r="G20" s="10"/>
-      <x:c r="H20" s="10"/>
-      <x:c r="I20" s="10"/>
-      <x:c r="J20" s="21"/>
-      <x:c r="K20" s="21"/>
-      <x:c r="L20" s="21"/>
-      <x:c r="M20" s="21"/>
-      <x:c r="N20" s="2"/>
-      <x:c r="O20" s="35"/>
-      <x:c r="P20" s="10"/>
-      <x:c r="Q20" s="10"/>
-      <x:c r="R20" s="21"/>
-    </x:row>
-    <x:row r="21" spans="1:18" ht="33" customHeight="1">
-      <x:c r="A21"/>
-      <x:c r="B21" s="32"/>
-      <x:c r="C21" s="8"/>
-      <x:c r="D21" s="19"/>
-      <x:c r="E21" s="20"/>
-      <x:c r="F21" s="20"/>
-      <x:c r="G21" s="20"/>
-      <x:c r="H21" s="20"/>
-      <x:c r="I21" s="20"/>
-      <x:c r="J21" s="20"/>
-      <x:c r="K21" s="20"/>
-      <x:c r="L21" s="20"/>
-      <x:c r="M21" s="20"/>
-      <x:c r="N21" s="20"/>
-      <x:c r="O21" s="34"/>
-      <x:c r="P21" s="10"/>
-      <x:c r="Q21" s="10"/>
-      <x:c r="R21" s="21"/>
-    </x:row>
-    <x:row r="22" spans="1:16" ht="33" customHeight="1">
-      <x:c r="A22"/>
-      <x:c r="B22"/>
-      <x:c r="C22" s="24"/>
-      <x:c r="D22"/>
-      <x:c r="E22"/>
-      <x:c r="F22"/>
-      <x:c r="G22"/>
-      <x:c r="H22"/>
-      <x:c r="I22"/>
-      <x:c r="J22"/>
-      <x:c r="O22"/>
-      <x:c r="P22"/>
-    </x:row>
-    <x:row r="23" ht="33" customHeight="1"/>
-    <x:row r="24" ht="33" customHeight="1"/>
+    </x:row>
+    <x:row r="33" spans="2:2">
+      <x:c r="B33" s="3" t="s">
+        <x:v>43</x:v>
+      </x:c>
+    </x:row>
   </x:sheetData>
   <x:mergeCells count="4">
-    <x:mergeCell ref="B5:B10"/>
-    <x:mergeCell ref="B4:C4"/>
-    <x:mergeCell ref="B2:Q2"/>
-    <x:mergeCell ref="B11:B21"/>
+    <x:mergeCell ref="A5:A10"/>
+    <x:mergeCell ref="A4:B4"/>
+    <x:mergeCell ref="A2:Y2"/>
+    <x:mergeCell ref="A11:A29"/>
   </x:mergeCells>
-  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51166665554046631" footer="0.51166665554046631"/>
+  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51138889789581299" footer="0.51138889789581299"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </x:worksheet>
 </file>